--- a/JS-Frameworks-Self-Evaluation-Protocol.xlsx
+++ b/JS-Frameworks-Self-Evaluation-Protocol.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aliona\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aliona\Desktop\GitHub\ITracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="37">
   <si>
     <t>Days Commit in GitHub</t>
   </si>
@@ -54,9 +54,6 @@
   </si>
   <si>
     <t>GitHub (up to 100)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
   </si>
   <si>
     <t>GithHub Profile Link</t>
@@ -366,10 +363,10 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -655,8 +652,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -668,7 +665,7 @@
   <sheetData>
     <row r="2" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B2" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>8</v>
@@ -677,12 +674,12 @@
         <v>6</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B3" s="20" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C3" s="20"/>
       <c r="D3" s="20"/>
@@ -690,20 +687,20 @@
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B4" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D4" s="19"/>
       <c r="E4" s="19"/>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B5" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D5" s="19"/>
       <c r="E5" s="19"/>
@@ -718,13 +715,13 @@
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
+        <v>10</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
@@ -732,7 +729,7 @@
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E8" s="5"/>
     </row>
@@ -742,13 +739,13 @@
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E9" s="5"/>
     </row>
     <row r="10" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B10" s="15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C10" s="15"/>
       <c r="D10" s="15"/>
@@ -758,8 +755,8 @@
       <c r="B11" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="4" t="s">
-        <v>10</v>
+      <c r="C11" s="4">
+        <v>20</v>
       </c>
       <c r="D11" s="4">
         <v>20</v>
@@ -770,7 +767,9 @@
       <c r="B12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C12" s="4"/>
+      <c r="C12" s="4">
+        <v>30</v>
+      </c>
       <c r="D12" s="4">
         <v>30</v>
       </c>
@@ -780,7 +779,9 @@
       <c r="B13" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="4"/>
+      <c r="C13" s="4">
+        <v>5</v>
+      </c>
       <c r="D13" s="4">
         <v>5</v>
       </c>
@@ -788,9 +789,11 @@
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B14" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" s="4"/>
+        <v>17</v>
+      </c>
+      <c r="C14" s="4">
+        <v>10</v>
+      </c>
       <c r="D14" s="4">
         <v>10</v>
       </c>
@@ -798,9 +801,11 @@
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B15" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15" s="4"/>
+        <v>20</v>
+      </c>
+      <c r="C15" s="4">
+        <v>5</v>
+      </c>
       <c r="D15" s="4">
         <v>10</v>
       </c>
@@ -808,7 +813,7 @@
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B16" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="4">
@@ -818,7 +823,7 @@
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="4">
@@ -828,7 +833,7 @@
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="4">
@@ -838,9 +843,11 @@
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19" s="4"/>
+        <v>24</v>
+      </c>
+      <c r="C19" s="4">
+        <v>15</v>
+      </c>
       <c r="D19" s="4">
         <v>15</v>
       </c>
@@ -848,7 +855,7 @@
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C20" s="4"/>
       <c r="D20" s="4">
@@ -858,9 +865,11 @@
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B21" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C21" s="4"/>
+        <v>18</v>
+      </c>
+      <c r="C21" s="4">
+        <v>10</v>
+      </c>
       <c r="D21" s="4">
         <v>10</v>
       </c>
@@ -870,7 +879,9 @@
       <c r="B22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C22" s="4"/>
+      <c r="C22" s="4">
+        <v>5</v>
+      </c>
       <c r="D22" s="4">
         <v>5</v>
       </c>
@@ -878,9 +889,11 @@
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B23" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C23" s="4"/>
+        <v>19</v>
+      </c>
+      <c r="C23" s="4">
+        <v>10</v>
+      </c>
       <c r="D23" s="4">
         <v>10</v>
       </c>
@@ -888,7 +901,7 @@
     </row>
     <row r="24" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B24" s="16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C24" s="17"/>
       <c r="D24" s="17"/>
@@ -896,7 +909,7 @@
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B25" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C25" s="6"/>
       <c r="D25" s="6">
@@ -906,7 +919,7 @@
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B26" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C26" s="6"/>
       <c r="D26" s="6">
@@ -916,7 +929,7 @@
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B27" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
@@ -924,7 +937,7 @@
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B28" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C28" s="6"/>
       <c r="D28" s="6">
@@ -934,7 +947,7 @@
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B29" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C29" s="6"/>
       <c r="D29" s="6">
@@ -944,7 +957,7 @@
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B30" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C30" s="6"/>
       <c r="D30" s="6">
@@ -954,7 +967,7 @@
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B31" s="13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C31" s="6"/>
       <c r="D31" s="6">
@@ -968,7 +981,7 @@
       </c>
       <c r="C32" s="10">
         <f>SUM(C6:C31)</f>
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="D32" s="10">
         <v>330</v>
